--- a/FRDM KL25Z Pin besetzung.xlsx
+++ b/FRDM KL25Z Pin besetzung.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
   <si>
     <t>FRDM Board KL25Z Pin Besetzung</t>
   </si>
@@ -233,6 +233,24 @@
   </si>
   <si>
     <t>TPM1_CH0 - Motor Left Trigger Signal</t>
+  </si>
+  <si>
+    <t>TPM1_CH1 - Motor Right Trigger Signal</t>
+  </si>
+  <si>
+    <t>TPM0_CH5 - Greifer-Zange, Servo</t>
+  </si>
+  <si>
+    <t>TPM0_CH3 - Muldenklappe, Servo</t>
+  </si>
+  <si>
+    <t>TPM0_CH4 - Greifer Kippen, Servo</t>
+  </si>
+  <si>
+    <t>TPM0_CH0 - Horizontale Bewegung, DC-Motor</t>
+  </si>
+  <si>
+    <t>TPM0_CH1 - Vertikale Bewegung, DC-Motor</t>
   </si>
 </sst>
 </file>
@@ -285,11 +303,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -596,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,12 +642,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -652,7 +670,7 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -661,7 +679,7 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -670,7 +688,7 @@
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -679,7 +697,7 @@
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -688,7 +706,7 @@
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -697,7 +715,7 @@
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -707,6 +725,9 @@
         <v>14</v>
       </c>
       <c r="C15" s="3"/>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -715,7 +736,7 @@
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="3"/>
       <c r="D16" t="s">
         <v>72</v>
       </c>
@@ -727,7 +748,7 @@
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -736,7 +757,7 @@
       <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -745,7 +766,7 @@
       <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -754,7 +775,7 @@
       <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -763,7 +784,7 @@
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -773,6 +794,9 @@
         <v>21</v>
       </c>
       <c r="C22" s="3"/>
+      <c r="D22" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -781,7 +805,7 @@
       <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -791,14 +815,17 @@
         <v>23</v>
       </c>
       <c r="C24" s="3"/>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -821,7 +848,7 @@
       <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -831,6 +858,9 @@
         <v>26</v>
       </c>
       <c r="C28" s="3"/>
+      <c r="D28" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -839,7 +869,7 @@
       <c r="B29" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -848,7 +878,7 @@
       <c r="B30" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
@@ -857,7 +887,7 @@
       <c r="B31" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
@@ -866,7 +896,7 @@
       <c r="B32" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
@@ -875,7 +905,7 @@
       <c r="B33" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
@@ -884,7 +914,7 @@
       <c r="B34" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
@@ -893,7 +923,7 @@
       <c r="B35" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
@@ -902,7 +932,7 @@
       <c r="B36" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
@@ -911,7 +941,7 @@
       <c r="B37" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
@@ -920,7 +950,7 @@
       <c r="B38" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="3"/>
+      <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
@@ -929,7 +959,7 @@
       <c r="B39" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
@@ -938,7 +968,7 @@
       <c r="B40" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
@@ -947,7 +977,7 @@
       <c r="B41" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="3"/>
+      <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
@@ -956,7 +986,7 @@
       <c r="B42" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
@@ -965,7 +995,7 @@
       <c r="B43" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="3"/>
+      <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
@@ -974,7 +1004,7 @@
       <c r="B44" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
@@ -983,7 +1013,7 @@
       <c r="B45" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="3"/>
+      <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
@@ -992,15 +1022,15 @@
       <c r="B46" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="3"/>
+      <c r="C46" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
@@ -1023,7 +1053,7 @@
       <c r="B50" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="3"/>
+      <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
@@ -1032,7 +1062,7 @@
       <c r="B51" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="3"/>
+      <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
@@ -1041,7 +1071,7 @@
       <c r="B52" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="3"/>
+      <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
@@ -1050,7 +1080,7 @@
       <c r="B53" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="3"/>
+      <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
@@ -1059,7 +1089,7 @@
       <c r="B54" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="3"/>
+      <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
@@ -1068,7 +1098,7 @@
       <c r="B55" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="3"/>
+      <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
@@ -1077,7 +1107,7 @@
       <c r="B56" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="3"/>
+      <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
@@ -1086,7 +1116,7 @@
       <c r="B57" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="3"/>
+      <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
@@ -1095,7 +1125,7 @@
       <c r="B58" t="s">
         <v>54</v>
       </c>
-      <c r="C58" s="3"/>
+      <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
@@ -1105,6 +1135,9 @@
         <v>55</v>
       </c>
       <c r="C59" s="3"/>
+      <c r="D59" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
@@ -1113,7 +1146,7 @@
       <c r="B60" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="3"/>
+      <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
@@ -1123,14 +1156,17 @@
         <v>57</v>
       </c>
       <c r="C61" s="3"/>
+      <c r="D61" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
@@ -1153,7 +1189,7 @@
       <c r="B65" t="s">
         <v>59</v>
       </c>
-      <c r="C65" s="3"/>
+      <c r="C65" s="2"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
@@ -1162,7 +1198,7 @@
       <c r="B66" t="s">
         <v>60</v>
       </c>
-      <c r="C66" s="3"/>
+      <c r="C66" s="2"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
@@ -1171,7 +1207,7 @@
       <c r="B67" t="s">
         <v>61</v>
       </c>
-      <c r="C67" s="3"/>
+      <c r="C67" s="2"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
@@ -1180,7 +1216,7 @@
       <c r="B68" t="s">
         <v>62</v>
       </c>
-      <c r="C68" s="3"/>
+      <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
@@ -1189,7 +1225,7 @@
       <c r="B69" t="s">
         <v>63</v>
       </c>
-      <c r="C69" s="3"/>
+      <c r="C69" s="2"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
@@ -1198,7 +1234,7 @@
       <c r="B70" t="s">
         <v>64</v>
       </c>
-      <c r="C70" s="3"/>
+      <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
@@ -1207,7 +1243,7 @@
       <c r="B71" t="s">
         <v>65</v>
       </c>
-      <c r="C71" s="3"/>
+      <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
@@ -1216,7 +1252,7 @@
       <c r="B72" t="s">
         <v>62</v>
       </c>
-      <c r="C72" s="3"/>
+      <c r="C72" s="2"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
@@ -1225,7 +1261,7 @@
       <c r="B73" t="s">
         <v>66</v>
       </c>
-      <c r="C73" s="3"/>
+      <c r="C73" s="2"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
@@ -1234,7 +1270,7 @@
       <c r="B74" t="s">
         <v>67</v>
       </c>
-      <c r="C74" s="3"/>
+      <c r="C74" s="2"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
@@ -1243,7 +1279,7 @@
       <c r="B75" t="s">
         <v>68</v>
       </c>
-      <c r="C75" s="3"/>
+      <c r="C75" s="2"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
@@ -1252,7 +1288,7 @@
       <c r="B76" t="s">
         <v>38</v>
       </c>
-      <c r="C76" s="3"/>
+      <c r="C76" s="2"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
@@ -1261,7 +1297,7 @@
       <c r="B77" t="s">
         <v>69</v>
       </c>
-      <c r="C77" s="3"/>
+      <c r="C77" s="2"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
@@ -1270,7 +1306,7 @@
       <c r="B78" t="s">
         <v>38</v>
       </c>
-      <c r="C78" s="3"/>
+      <c r="C78" s="2"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
@@ -1279,7 +1315,7 @@
       <c r="B79" t="s">
         <v>70</v>
       </c>
-      <c r="C79" s="3"/>
+      <c r="C79" s="2"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
@@ -1288,7 +1324,7 @@
       <c r="B80" t="s">
         <v>71</v>
       </c>
-      <c r="C80" s="3"/>
+      <c r="C80" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/FRDM KL25Z Pin besetzung.xlsx
+++ b/FRDM KL25Z Pin besetzung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="80">
   <si>
     <t>FRDM Board KL25Z Pin Besetzung</t>
   </si>
@@ -232,25 +232,28 @@
     <t>P5-9V_VIN</t>
   </si>
   <si>
-    <t>TPM1_CH0 - Motor Left Trigger Signal</t>
-  </si>
-  <si>
     <t>TPM1_CH1 - Motor Right Trigger Signal</t>
   </si>
   <si>
-    <t>TPM0_CH5 - Greifer-Zange, Servo</t>
-  </si>
-  <si>
-    <t>TPM0_CH3 - Muldenklappe, Servo</t>
-  </si>
-  <si>
-    <t>TPM0_CH4 - Greifer Kippen, Servo</t>
-  </si>
-  <si>
-    <t>TPM0_CH0 - Horizontale Bewegung, DC-Motor</t>
-  </si>
-  <si>
-    <t>TPM0_CH1 - Vertikale Bewegung, DC-Motor</t>
+    <t>Stepper Motor Links Antrieb TPM2 C0V</t>
+  </si>
+  <si>
+    <t>Stepper Motor Rechts Antrieb TPM2 C1V</t>
+  </si>
+  <si>
+    <t>Motor Bit</t>
+  </si>
+  <si>
+    <t>Trigger Bit für Ultrasensor</t>
+  </si>
+  <si>
+    <t>Timer für Ultraschallsensor TPM0 C4V</t>
+  </si>
+  <si>
+    <t>Servo für Greifer TPM0 CH0</t>
+  </si>
+  <si>
+    <t>Timer für Servo Greifer drehen TPM0 CH1</t>
   </si>
 </sst>
 </file>
@@ -614,34 +617,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" customWidth="1"/>
-    <col min="3" max="3" width="6.21875" customWidth="1"/>
-    <col min="4" max="4" width="53.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="53.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -649,7 +652,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -663,7 +666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -672,7 +675,7 @@
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -681,7 +684,7 @@
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -690,7 +693,7 @@
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -699,49 +702,49 @@
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="3"/>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="3"/>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>9</v>
       </c>
@@ -750,7 +753,7 @@
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>10</v>
       </c>
@@ -759,7 +762,7 @@
       </c>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>11</v>
       </c>
@@ -768,7 +771,7 @@
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>12</v>
       </c>
@@ -777,7 +780,7 @@
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>13</v>
       </c>
@@ -786,19 +789,16 @@
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>14</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>15</v>
       </c>
@@ -807,19 +807,16 @@
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>16</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
@@ -827,7 +824,7 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -841,7 +838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -850,7 +847,7 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -859,10 +856,10 @@
       </c>
       <c r="C28" s="3"/>
       <c r="D28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -871,7 +868,7 @@
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -880,7 +877,7 @@
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>5</v>
       </c>
@@ -889,16 +886,19 @@
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>6</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C32" s="3"/>
+      <c r="D32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>7</v>
       </c>
@@ -907,7 +907,7 @@
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>8</v>
       </c>
@@ -916,7 +916,7 @@
       </c>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>9</v>
       </c>
@@ -925,7 +925,7 @@
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>10</v>
       </c>
@@ -934,7 +934,7 @@
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>11</v>
       </c>
@@ -943,7 +943,7 @@
       </c>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>12</v>
       </c>
@@ -952,7 +952,7 @@
       </c>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>13</v>
       </c>
@@ -961,7 +961,7 @@
       </c>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>14</v>
       </c>
@@ -970,7 +970,7 @@
       </c>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>15</v>
       </c>
@@ -979,7 +979,7 @@
       </c>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>16</v>
       </c>
@@ -988,7 +988,7 @@
       </c>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>17</v>
       </c>
@@ -997,7 +997,7 @@
       </c>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>18</v>
       </c>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>19</v>
       </c>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>20</v>
       </c>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C46" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>45</v>
       </c>
@@ -1032,7 +1032,7 @@
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1</v>
       </c>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2</v>
       </c>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>3</v>
       </c>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>4</v>
       </c>
@@ -1082,16 +1082,19 @@
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>5</v>
       </c>
       <c r="B54" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="2"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C54" s="3"/>
+      <c r="D54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>6</v>
       </c>
@@ -1100,7 +1103,7 @@
       </c>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>7</v>
       </c>
@@ -1109,16 +1112,19 @@
       </c>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>8</v>
       </c>
       <c r="B57" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="2"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C57" s="3"/>
+      <c r="D57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>9</v>
       </c>
@@ -1127,19 +1133,16 @@
       </c>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>10</v>
       </c>
       <c r="B59" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="3"/>
-      <c r="D59" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>11</v>
       </c>
@@ -1148,19 +1151,16 @@
       </c>
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>12</v>
       </c>
       <c r="B61" t="s">
         <v>57</v>
       </c>
-      <c r="C61" s="3"/>
-      <c r="D61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C61" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>58</v>
       </c>
@@ -1168,7 +1168,7 @@
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1</v>
       </c>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="C65" s="2"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2</v>
       </c>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="C66" s="2"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>3</v>
       </c>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="C67" s="2"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>4</v>
       </c>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="C68" s="2"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>5</v>
       </c>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>6</v>
       </c>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>7</v>
       </c>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>8</v>
       </c>
@@ -1254,16 +1254,19 @@
       </c>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>9</v>
       </c>
       <c r="B73" t="s">
         <v>66</v>
       </c>
-      <c r="C73" s="2"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C73" s="3"/>
+      <c r="D73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>10</v>
       </c>
@@ -1272,7 +1275,7 @@
       </c>
       <c r="C74" s="2"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>11</v>
       </c>
@@ -1281,7 +1284,7 @@
       </c>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>12</v>
       </c>
@@ -1290,7 +1293,7 @@
       </c>
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>13</v>
       </c>
@@ -1299,7 +1302,7 @@
       </c>
       <c r="C77" s="2"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>14</v>
       </c>
@@ -1308,16 +1311,19 @@
       </c>
       <c r="C78" s="2"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>15</v>
       </c>
       <c r="B79" t="s">
         <v>70</v>
       </c>
-      <c r="C79" s="2"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C79" s="3"/>
+      <c r="D79" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>16</v>
       </c>

--- a/FRDM KL25Z Pin besetzung.xlsx
+++ b/FRDM KL25Z Pin besetzung.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="85">
   <si>
     <t>FRDM Board KL25Z Pin Besetzung</t>
   </si>
@@ -254,6 +254,21 @@
   </si>
   <si>
     <t>Timer für Servo Greifer drehen TPM0 CH1</t>
+  </si>
+  <si>
+    <t>DC_Greifer_Schiene_Horizontal TPM0_C3V</t>
+  </si>
+  <si>
+    <t>DC_Greifer_Schiene_Vertikall TPM0_C4V</t>
+  </si>
+  <si>
+    <t>Mulde Leeren TPM0_C1V</t>
+  </si>
+  <si>
+    <t>Bit DC Motor Horiziontal</t>
+  </si>
+  <si>
+    <t>Bit DC Motor Vertikal</t>
   </si>
 </sst>
 </file>
@@ -617,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,7 +748,10 @@
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -796,7 +814,10 @@
       <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -1004,7 +1025,10 @@
       <c r="B44" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" s="3"/>
+      <c r="D44" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
@@ -1022,7 +1046,10 @@
       <c r="B46" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="2"/>
+      <c r="C46" s="3"/>
+      <c r="D46" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
@@ -1140,7 +1167,10 @@
       <c r="B59" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="2"/>
+      <c r="C59" s="3"/>
+      <c r="D59" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">

--- a/FRDM KL25Z Pin besetzung.xlsx
+++ b/FRDM KL25Z Pin besetzung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>FRDM Board KL25Z Pin Besetzung</t>
   </si>
@@ -241,44 +241,71 @@
     <t>Stepper Motor Rechts Antrieb TPM2 C1V</t>
   </si>
   <si>
-    <t>Motor Bit</t>
-  </si>
-  <si>
     <t>Trigger Bit für Ultrasensor</t>
   </si>
   <si>
-    <t>Timer für Ultraschallsensor TPM0 C4V</t>
-  </si>
-  <si>
     <t>Servo für Greifer TPM0 CH0</t>
   </si>
   <si>
     <t>Timer für Servo Greifer drehen TPM0 CH1</t>
   </si>
   <si>
-    <t>DC_Greifer_Schiene_Horizontal TPM0_C3V</t>
-  </si>
-  <si>
-    <t>DC_Greifer_Schiene_Vertikall TPM0_C4V</t>
-  </si>
-  <si>
     <t>Mulde Leeren TPM0_C1V</t>
   </si>
   <si>
-    <t>Bit DC Motor Horiziontal</t>
-  </si>
-  <si>
-    <t>Bit DC Motor Vertikal</t>
+    <t>MS1 - Beide Motoren</t>
+  </si>
+  <si>
+    <t>MS2 - Beide Motoren</t>
+  </si>
+  <si>
+    <t>MS3 - Beide Motoren</t>
+  </si>
+  <si>
+    <t>Motor Rechts Direction</t>
+  </si>
+  <si>
+    <t>Motor Links Direction</t>
+  </si>
+  <si>
+    <t>Schrittmotor Sleep</t>
+  </si>
+  <si>
+    <t>Schrittmotor Enable</t>
+  </si>
+  <si>
+    <t>Bit DC Motor Horiziontal (Phase)</t>
+  </si>
+  <si>
+    <t>Bit DC Motor Vertikal (Phase)</t>
+  </si>
+  <si>
+    <t>DC_Greifer_Schiene_Vertikal TPM0_C4V (Enable)</t>
+  </si>
+  <si>
+    <t>DC_Greifer_Schiene_Horizontal TPM0_C3V (Enable)</t>
+  </si>
+  <si>
+    <t>DC_Greifer_Schiene_Beide_ Modus (Mode)</t>
+  </si>
+  <si>
+    <t>Timer für Ultraschallsensor Signal TPM0 C4V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -316,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -326,6 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -632,34 +660,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
-    <col min="4" max="4" width="53.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="53.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -667,7 +695,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -681,7 +709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -690,7 +718,7 @@
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -699,7 +727,7 @@
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -708,7 +736,7 @@
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -717,7 +745,7 @@
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>5</v>
       </c>
@@ -726,10 +754,10 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>6</v>
       </c>
@@ -738,10 +766,10 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>7</v>
       </c>
@@ -750,10 +778,10 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>8</v>
       </c>
@@ -762,7 +790,7 @@
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>9</v>
       </c>
@@ -771,7 +799,7 @@
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>10</v>
       </c>
@@ -780,7 +808,7 @@
       </c>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>11</v>
       </c>
@@ -789,7 +817,7 @@
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>12</v>
       </c>
@@ -798,16 +826,19 @@
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>13</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+      <c r="D21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>14</v>
       </c>
@@ -816,10 +847,10 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>15</v>
       </c>
@@ -828,7 +859,7 @@
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>16</v>
       </c>
@@ -837,7 +868,7 @@
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
@@ -845,7 +876,7 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -859,7 +890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -868,7 +899,7 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -880,7 +911,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -889,7 +920,7 @@
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -898,7 +929,7 @@
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>5</v>
       </c>
@@ -907,7 +938,7 @@
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>6</v>
       </c>
@@ -916,10 +947,10 @@
       </c>
       <c r="C32" s="3"/>
       <c r="D32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>7</v>
       </c>
@@ -928,7 +959,7 @@
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>8</v>
       </c>
@@ -937,7 +968,7 @@
       </c>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>9</v>
       </c>
@@ -946,7 +977,7 @@
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>10</v>
       </c>
@@ -955,7 +986,7 @@
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>11</v>
       </c>
@@ -964,7 +995,7 @@
       </c>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>12</v>
       </c>
@@ -973,7 +1004,7 @@
       </c>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>13</v>
       </c>
@@ -982,7 +1013,7 @@
       </c>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>14</v>
       </c>
@@ -991,7 +1022,7 @@
       </c>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>15</v>
       </c>
@@ -1000,7 +1031,7 @@
       </c>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>16</v>
       </c>
@@ -1009,7 +1040,7 @@
       </c>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>17</v>
       </c>
@@ -1018,7 +1049,7 @@
       </c>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>18</v>
       </c>
@@ -1027,10 +1058,10 @@
       </c>
       <c r="C44" s="3"/>
       <c r="D44" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>19</v>
       </c>
@@ -1039,7 +1070,7 @@
       </c>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>20</v>
       </c>
@@ -1048,10 +1079,10 @@
       </c>
       <c r="C46" s="3"/>
       <c r="D46" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>45</v>
       </c>
@@ -1059,7 +1090,7 @@
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -1073,7 +1104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>1</v>
       </c>
@@ -1082,7 +1113,7 @@
       </c>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>2</v>
       </c>
@@ -1091,7 +1122,7 @@
       </c>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>3</v>
       </c>
@@ -1100,7 +1131,7 @@
       </c>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>4</v>
       </c>
@@ -1109,7 +1140,7 @@
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>5</v>
       </c>
@@ -1121,7 +1152,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>6</v>
       </c>
@@ -1130,7 +1161,7 @@
       </c>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>7</v>
       </c>
@@ -1139,7 +1170,7 @@
       </c>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>8</v>
       </c>
@@ -1151,7 +1182,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>9</v>
       </c>
@@ -1160,7 +1191,7 @@
       </c>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>10</v>
       </c>
@@ -1169,10 +1200,10 @@
       </c>
       <c r="C59" s="3"/>
       <c r="D59" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>11</v>
       </c>
@@ -1181,7 +1212,7 @@
       </c>
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>12</v>
       </c>
@@ -1190,7 +1221,7 @@
       </c>
       <c r="C61" s="2"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>58</v>
       </c>
@@ -1198,7 +1229,7 @@
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -1212,16 +1243,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>1</v>
       </c>
       <c r="B65" t="s">
         <v>59</v>
       </c>
-      <c r="C65" s="2"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="3"/>
+      <c r="D65" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>2</v>
       </c>
@@ -1230,16 +1264,19 @@
       </c>
       <c r="C66" s="2"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>3</v>
       </c>
       <c r="B67" t="s">
         <v>61</v>
       </c>
-      <c r="C67" s="2"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C67" s="3"/>
+      <c r="D67" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>4</v>
       </c>
@@ -1248,16 +1285,19 @@
       </c>
       <c r="C68" s="2"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>5</v>
       </c>
       <c r="B69" t="s">
         <v>63</v>
       </c>
-      <c r="C69" s="2"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C69" s="3"/>
+      <c r="D69" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>6</v>
       </c>
@@ -1266,16 +1306,19 @@
       </c>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>7</v>
       </c>
       <c r="B71" t="s">
         <v>65</v>
       </c>
-      <c r="C71" s="2"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C71" s="3"/>
+      <c r="D71" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>8</v>
       </c>
@@ -1284,7 +1327,7 @@
       </c>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>9</v>
       </c>
@@ -1293,10 +1336,10 @@
       </c>
       <c r="C73" s="3"/>
       <c r="D73" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>10</v>
       </c>
@@ -1305,16 +1348,19 @@
       </c>
       <c r="C74" s="2"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>11</v>
       </c>
       <c r="B75" t="s">
         <v>68</v>
       </c>
-      <c r="C75" s="2"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C75" s="5"/>
+      <c r="D75" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>12</v>
       </c>
@@ -1323,16 +1369,19 @@
       </c>
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>13</v>
       </c>
       <c r="B77" t="s">
         <v>69</v>
       </c>
-      <c r="C77" s="2"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C77" s="5"/>
+      <c r="D77" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>14</v>
       </c>
@@ -1341,7 +1390,7 @@
       </c>
       <c r="C78" s="2"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>15</v>
       </c>
@@ -1350,10 +1399,10 @@
       </c>
       <c r="C79" s="3"/>
       <c r="D79" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>16</v>
       </c>

--- a/FRDM KL25Z Pin besetzung.xlsx
+++ b/FRDM KL25Z Pin besetzung.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="96">
   <si>
     <t>FRDM Board KL25Z Pin Besetzung</t>
   </si>
@@ -22,9 +22,6 @@
     <t>In diesem Dokument werden die Pins für das Freedomboard verwaltet.</t>
   </si>
   <si>
-    <t>Besetze Pins werden angegeben und deren Verwerndungszweck</t>
-  </si>
-  <si>
     <t>Pin</t>
   </si>
   <si>
@@ -232,27 +229,9 @@
     <t>P5-9V_VIN</t>
   </si>
   <si>
-    <t>TPM1_CH1 - Motor Right Trigger Signal</t>
-  </si>
-  <si>
-    <t>Stepper Motor Links Antrieb TPM2 C0V</t>
-  </si>
-  <si>
-    <t>Stepper Motor Rechts Antrieb TPM2 C1V</t>
-  </si>
-  <si>
     <t>Trigger Bit für Ultrasensor</t>
   </si>
   <si>
-    <t>Servo für Greifer TPM0 CH0</t>
-  </si>
-  <si>
-    <t>Timer für Servo Greifer drehen TPM0 CH1</t>
-  </si>
-  <si>
-    <t>Mulde Leeren TPM0_C1V</t>
-  </si>
-  <si>
     <t>MS1 - Beide Motoren</t>
   </si>
   <si>
@@ -280,16 +259,49 @@
     <t>Bit DC Motor Vertikal (Phase)</t>
   </si>
   <si>
-    <t>DC_Greifer_Schiene_Vertikal TPM0_C4V (Enable)</t>
-  </si>
-  <si>
-    <t>DC_Greifer_Schiene_Horizontal TPM0_C3V (Enable)</t>
-  </si>
-  <si>
     <t>DC_Greifer_Schiene_Beide_ Modus (Mode)</t>
   </si>
   <si>
-    <t>Timer für Ultraschallsensor Signal TPM0 C4V</t>
+    <t>Stepper Motor Rechts Antrieb TPM0 C0V</t>
+  </si>
+  <si>
+    <t>Stepper Motor Links Antrieb TPM1 C0V</t>
+  </si>
+  <si>
+    <t>Servo Greifer Kippen TPM0_C2V</t>
+  </si>
+  <si>
+    <t>Timer für Servo Greifer TPM0 C1V</t>
+  </si>
+  <si>
+    <t>Servo Mulde kippen TPM0 C3V</t>
+  </si>
+  <si>
+    <t>DC_Greifer_Schiene_Horizontal TPM1_C1V (Enable)</t>
+  </si>
+  <si>
+    <t>DC_Greifer_Schiene_Vertikal TPM1_C1V (Enable)</t>
+  </si>
+  <si>
+    <t>Timer für Ultraschallsensor Signal TPM2 C0V</t>
+  </si>
+  <si>
+    <t>Besetzte Pins werden angegeben und deren Verwerndungszweck</t>
+  </si>
+  <si>
+    <t>Batterie Spannung</t>
+  </si>
+  <si>
+    <t>Anschlagsschalter Horizontal vorne</t>
+  </si>
+  <si>
+    <t>Anschlagsschalter Horizontal hinten</t>
+  </si>
+  <si>
+    <t>Anschalgsschalter Vertikal oben</t>
+  </si>
+  <si>
+    <t>Anschlagsschalter Vertikal unten</t>
   </si>
 </sst>
 </file>
@@ -350,10 +362,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -660,14 +672,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="53.33203125" customWidth="1"/>
   </cols>
@@ -684,29 +696,29 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -714,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2"/>
     </row>
@@ -723,7 +735,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -732,7 +744,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -741,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2"/>
     </row>
@@ -750,11 +762,11 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -762,31 +774,25 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" t="s">
-        <v>91</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" t="s">
-        <v>89</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2"/>
     </row>
@@ -795,7 +801,7 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2"/>
     </row>
@@ -804,7 +810,7 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2"/>
     </row>
@@ -813,7 +819,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="2"/>
     </row>
@@ -822,7 +828,7 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2"/>
     </row>
@@ -831,11 +837,11 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -843,51 +849,51 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" t="s">
-        <v>88</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>16</v>
       </c>
       <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
         <v>3</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>4</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>5</v>
-      </c>
-      <c r="D26" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -895,20 +901,23 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -916,7 +925,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="2"/>
     </row>
@@ -925,7 +934,7 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="2"/>
     </row>
@@ -934,20 +943,23 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -955,16 +967,19 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="2"/>
     </row>
@@ -973,7 +988,7 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="2"/>
     </row>
@@ -982,7 +997,7 @@
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="2"/>
     </row>
@@ -991,7 +1006,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="2"/>
     </row>
@@ -1000,7 +1015,7 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="2"/>
     </row>
@@ -1009,7 +1024,7 @@
         <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" s="2"/>
     </row>
@@ -1018,7 +1033,7 @@
         <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" s="2"/>
     </row>
@@ -1027,7 +1042,7 @@
         <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" s="2"/>
     </row>
@@ -1036,7 +1051,7 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="2"/>
     </row>
@@ -1045,20 +1060,23 @@
         <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1066,7 +1084,7 @@
         <v>19</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" s="2"/>
     </row>
@@ -1075,33 +1093,33 @@
         <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
+      <c r="A48" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
         <v>3</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>4</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>5</v>
-      </c>
-      <c r="D49" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1109,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C50" s="2"/>
     </row>
@@ -1118,7 +1136,7 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C51" s="2"/>
     </row>
@@ -1127,16 +1145,19 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C53" s="2"/>
     </row>
@@ -1145,11 +1166,11 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1157,7 +1178,7 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C55" s="2"/>
     </row>
@@ -1166,28 +1187,28 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
-      </c>
-      <c r="C57" s="3"/>
-      <c r="D57" t="s">
-        <v>74</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C58" s="2"/>
     </row>
@@ -1196,11 +1217,11 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1208,39 +1229,42 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>12</v>
       </c>
       <c r="B61" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C61" s="2"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
         <v>3</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>4</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>5</v>
-      </c>
-      <c r="D64" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1248,11 +1272,11 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1260,7 +1284,7 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C66" s="2"/>
     </row>
@@ -1269,11 +1293,11 @@
         <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1281,7 +1305,7 @@
         <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C68" s="2"/>
     </row>
@@ -1290,11 +1314,11 @@
         <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1302,7 +1326,7 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C70" s="2"/>
     </row>
@@ -1311,11 +1335,11 @@
         <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1323,7 +1347,7 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C72" s="2"/>
     </row>
@@ -1332,11 +1356,11 @@
         <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1344,7 +1368,7 @@
         <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C74" s="2"/>
     </row>
@@ -1353,11 +1377,11 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>68</v>
-      </c>
-      <c r="C75" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="C75" s="4"/>
       <c r="D75" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1365,7 +1389,7 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C76" s="2"/>
     </row>
@@ -1374,11 +1398,11 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>69</v>
-      </c>
-      <c r="C77" s="5"/>
+        <v>68</v>
+      </c>
+      <c r="C77" s="4"/>
       <c r="D77" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1386,7 +1410,7 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C78" s="2"/>
     </row>
@@ -1395,11 +1419,11 @@
         <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -1407,7 +1431,7 @@
         <v>16</v>
       </c>
       <c r="B80" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C80" s="2"/>
     </row>

--- a/FRDM KL25Z Pin besetzung.xlsx
+++ b/FRDM KL25Z Pin besetzung.xlsx
@@ -307,7 +307,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -384,7 +384,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -672,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,7 +794,10 @@
       <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -915,10 +918,7 @@
       <c r="B28" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" t="s">
-        <v>83</v>
-      </c>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">

--- a/FRDM KL25Z Pin besetzung.xlsx
+++ b/FRDM KL25Z Pin besetzung.xlsx
@@ -672,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/FRDM KL25Z Pin besetzung.xlsx
+++ b/FRDM KL25Z Pin besetzung.xlsx
@@ -672,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -854,7 +854,10 @@
       <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -1189,10 +1192,7 @@
       <c r="B56" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" t="s">
-        <v>87</v>
-      </c>
+      <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">

--- a/FRDM KL25Z Pin besetzung.xlsx
+++ b/FRDM KL25Z Pin besetzung.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="121">
   <si>
     <t>FRDM Board KL25Z Pin Besetzung</t>
   </si>
@@ -302,12 +302,87 @@
   </si>
   <si>
     <t>Anschlagsschalter Vertikal unten</t>
+  </si>
+  <si>
+    <t>SV_GR_K</t>
+  </si>
+  <si>
+    <t>DC_PWN_H</t>
+  </si>
+  <si>
+    <t>DC_SW_H</t>
+  </si>
+  <si>
+    <t>DC_SW_V</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>BAT_BAL</t>
+  </si>
+  <si>
+    <t>DC_DIR_H</t>
+  </si>
+  <si>
+    <t>DC_DIR_V</t>
+  </si>
+  <si>
+    <t>DC_PWM_V</t>
+  </si>
+  <si>
+    <t>US_TRIG</t>
+  </si>
+  <si>
+    <t>US_ECHO</t>
+  </si>
+  <si>
+    <t>SV_GR</t>
+  </si>
+  <si>
+    <t>SV_MK</t>
+  </si>
+  <si>
+    <t>STEP_LEFT</t>
+  </si>
+  <si>
+    <t>STEP_RIGHT</t>
+  </si>
+  <si>
+    <t>DC_MODE</t>
+  </si>
+  <si>
+    <t>Schematics Signal</t>
+  </si>
+  <si>
+    <t>Pin am 66-Connector</t>
+  </si>
+  <si>
+    <t>DIR_RIGHT</t>
+  </si>
+  <si>
+    <t>DIR_LEFT</t>
+  </si>
+  <si>
+    <t>SLEEP</t>
+  </si>
+  <si>
+    <t>ENABLE</t>
+  </si>
+  <si>
+    <t>MS1</t>
+  </si>
+  <si>
+    <t>MS2</t>
+  </si>
+  <si>
+    <t>MS3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -355,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -365,6 +440,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -384,7 +470,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -670,777 +756,979 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" customWidth="1"/>
-    <col min="4" max="4" width="53.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="53.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" s="9" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="5"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="5"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="5"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>4</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="5"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" t="s">
+      <c r="C13" s="5">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="5"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="5"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" t="s">
+      <c r="C16" s="5">
+        <v>37</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>9</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="5"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>10</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="5"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>11</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="5"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>12</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="5"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>13</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" t="s">
+      <c r="C21" s="5">
+        <v>44</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>14</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" t="s">
+      <c r="C22" s="5">
+        <v>43</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>15</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>16</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="C24" s="5"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>2</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="5"/>
+      <c r="D26" t="s">
         <v>4</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>1</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" t="s">
+      <c r="C27" s="5">
+        <v>47</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C28" s="5"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>3</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C29" s="5"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>4</v>
       </c>
       <c r="B30" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C30" s="5"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>5</v>
       </c>
       <c r="B31" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>6</v>
       </c>
       <c r="B32" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" t="s">
+      <c r="C32" s="5">
+        <v>52</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>7</v>
       </c>
       <c r="B33" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" t="s">
+      <c r="C33" s="5">
+        <v>53</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>8</v>
       </c>
       <c r="B34" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C34" s="5"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>9</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C35" s="5"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>10</v>
       </c>
       <c r="B36" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C36" s="5"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>11</v>
       </c>
       <c r="B37" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="5"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>12</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="5"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>13</v>
       </c>
       <c r="B39" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C39" s="5"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>14</v>
       </c>
       <c r="B40" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C40" s="5"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>15</v>
       </c>
       <c r="B41" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C41" s="5"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>16</v>
       </c>
       <c r="B42" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C42" s="5"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>17</v>
       </c>
       <c r="B43" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" t="s">
+      <c r="C43" s="5">
+        <v>63</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F43" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>18</v>
       </c>
       <c r="B44" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" t="s">
+      <c r="C44" s="5">
+        <v>64</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F44" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>19</v>
       </c>
       <c r="B45" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C45" s="5"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>20</v>
       </c>
       <c r="B46" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" t="s">
+      <c r="C46" s="5">
+        <v>66</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F46" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>2</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="5"/>
+      <c r="D49" t="s">
         <v>4</v>
       </c>
-      <c r="D49" t="s">
+      <c r="F49" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>1</v>
       </c>
       <c r="B50" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C50" s="5"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>2</v>
       </c>
       <c r="B51" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C51" s="5"/>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>3</v>
       </c>
       <c r="B52" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" t="s">
+      <c r="C52" s="5">
+        <v>19</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F52" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>4</v>
       </c>
       <c r="B53" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="2"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C53" s="5"/>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>5</v>
       </c>
       <c r="B54" t="s">
         <v>49</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" t="s">
+      <c r="C54" s="5">
+        <v>21</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>6</v>
       </c>
       <c r="B55" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="2"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C55" s="5"/>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>7</v>
       </c>
       <c r="B56" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="2"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C56" s="5"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>8</v>
       </c>
       <c r="B57" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="2"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C57" s="5"/>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>9</v>
       </c>
       <c r="B58" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="2"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C58" s="5"/>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>10</v>
       </c>
       <c r="B59" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="3"/>
-      <c r="D59" t="s">
+      <c r="C59" s="5">
+        <v>26</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F59" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>11</v>
       </c>
       <c r="B60" t="s">
         <v>55</v>
       </c>
-      <c r="C60" s="3"/>
-      <c r="D60" t="s">
+      <c r="C60" s="5">
+        <v>27</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F60" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>12</v>
       </c>
       <c r="B61" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="2"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
+      <c r="C61" s="5"/>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C62" s="5"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>2</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="5"/>
+      <c r="D64" t="s">
         <v>4</v>
       </c>
-      <c r="D64" t="s">
+      <c r="F64" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>1</v>
       </c>
       <c r="B65" t="s">
         <v>58</v>
       </c>
-      <c r="C65" s="3"/>
-      <c r="D65" t="s">
+      <c r="C65" s="5">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F65" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>2</v>
       </c>
       <c r="B66" t="s">
         <v>59</v>
       </c>
-      <c r="C66" s="2"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C66" s="5"/>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>3</v>
       </c>
       <c r="B67" t="s">
         <v>60</v>
       </c>
-      <c r="C67" s="3"/>
-      <c r="D67" t="s">
+      <c r="C67" s="5">
+        <v>3</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F67" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>4</v>
       </c>
       <c r="B68" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="2"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C68" s="5"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>5</v>
       </c>
       <c r="B69" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="3"/>
-      <c r="D69" t="s">
+      <c r="C69" s="5">
+        <v>5</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F69" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>6</v>
       </c>
       <c r="B70" t="s">
         <v>63</v>
       </c>
-      <c r="C70" s="2"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C70" s="5"/>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>7</v>
       </c>
       <c r="B71" t="s">
         <v>64</v>
       </c>
-      <c r="C71" s="3"/>
-      <c r="D71" t="s">
+      <c r="C71" s="5">
+        <v>7</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F71" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>8</v>
       </c>
       <c r="B72" t="s">
         <v>61</v>
       </c>
-      <c r="C72" s="2"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C72" s="5"/>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>9</v>
       </c>
       <c r="B73" t="s">
         <v>65</v>
       </c>
-      <c r="C73" s="3"/>
-      <c r="D73" t="s">
+      <c r="C73" s="5">
+        <v>9</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>10</v>
       </c>
       <c r="B74" t="s">
         <v>66</v>
       </c>
-      <c r="C74" s="2"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C74" s="5"/>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>11</v>
       </c>
       <c r="B75" t="s">
         <v>67</v>
       </c>
-      <c r="C75" s="4"/>
-      <c r="D75" t="s">
+      <c r="C75" s="5">
+        <v>11</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F75" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>12</v>
       </c>
       <c r="B76" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="2"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C76" s="5"/>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>13</v>
       </c>
       <c r="B77" t="s">
         <v>68</v>
       </c>
-      <c r="C77" s="4"/>
-      <c r="D77" t="s">
+      <c r="C77" s="5">
+        <v>13</v>
+      </c>
+      <c r="D77" s="4"/>
+      <c r="E77" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F77" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>14</v>
       </c>
       <c r="B78" t="s">
         <v>37</v>
       </c>
-      <c r="C78" s="2"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C78" s="5"/>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>15</v>
       </c>
       <c r="B79" t="s">
         <v>69</v>
       </c>
-      <c r="C79" s="3"/>
-      <c r="D79" t="s">
+      <c r="C79" s="5">
+        <v>15</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F79" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>16</v>
       </c>
       <c r="B80" t="s">
         <v>70</v>
       </c>
-      <c r="C80" s="2"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A63:F63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/FRDM KL25Z Pin besetzung.xlsx
+++ b/FRDM KL25Z Pin besetzung.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="124">
   <si>
     <t>FRDM Board KL25Z Pin Besetzung</t>
   </si>
@@ -292,18 +292,9 @@
     <t>Batterie Spannung</t>
   </si>
   <si>
-    <t>Anschlagsschalter Horizontal vorne</t>
-  </si>
-  <si>
     <t>Anschlagsschalter Horizontal hinten</t>
   </si>
   <si>
-    <t>Anschalgsschalter Vertikal oben</t>
-  </si>
-  <si>
-    <t>Anschlagsschalter Vertikal unten</t>
-  </si>
-  <si>
     <t>SV_GR_K</t>
   </si>
   <si>
@@ -316,9 +307,6 @@
     <t>DC_SW_V</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>BAT_BAL</t>
   </si>
   <si>
@@ -377,6 +365,27 @@
   </si>
   <si>
     <t>MS3</t>
+  </si>
+  <si>
+    <t>DC_VIB</t>
+  </si>
+  <si>
+    <t>DC-Vibrationsmotor</t>
+  </si>
+  <si>
+    <t>SW_GREEN</t>
+  </si>
+  <si>
+    <t>Switch für grünen Container</t>
+  </si>
+  <si>
+    <t>SW_BLUE</t>
+  </si>
+  <si>
+    <t>Switch für blauen Container</t>
+  </si>
+  <si>
+    <t>Anschlagsschalter Vertikal oben</t>
   </si>
 </sst>
 </file>
@@ -441,9 +450,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -451,6 +457,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -758,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -768,7 +777,7 @@
     <col min="2" max="2" width="11.77734375" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="6.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="6" customWidth="1"/>
     <col min="6" max="6" width="53.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -788,32 +797,32 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" s="9" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" s="8" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -824,8 +833,16 @@
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="5">
+        <v>29</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -868,8 +885,8 @@
         <v>36</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="7" t="s">
-        <v>96</v>
+      <c r="E13" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
@@ -906,8 +923,8 @@
         <v>37</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="7" t="s">
-        <v>109</v>
+      <c r="E16" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="F16" t="s">
         <v>83</v>
@@ -964,8 +981,8 @@
         <v>44</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="7" t="s">
-        <v>111</v>
+      <c r="E21" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="F21" t="s">
         <v>81</v>
@@ -982,8 +999,8 @@
         <v>43</v>
       </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="7" t="s">
-        <v>97</v>
+      <c r="E22" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="F22" t="s">
         <v>87</v>
@@ -996,13 +1013,15 @@
       <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5">
+        <v>46</v>
+      </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="7" t="s">
-        <v>100</v>
+      <c r="E23" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="F23" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1016,14 +1035,14 @@
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -1051,11 +1070,11 @@
         <v>47</v>
       </c>
       <c r="D27" s="3"/>
-      <c r="E27" s="7" t="s">
-        <v>99</v>
+      <c r="E27" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="F27" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1095,13 +1114,15 @@
       <c r="B31" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="5"/>
+      <c r="C31" s="5">
+        <v>51</v>
+      </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="7" t="s">
-        <v>100</v>
+      <c r="E31" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="F31" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1115,8 +1136,8 @@
         <v>52</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="7" t="s">
-        <v>110</v>
+      <c r="E32" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="F32" t="s">
         <v>82</v>
@@ -1133,11 +1154,11 @@
         <v>53</v>
       </c>
       <c r="D33" s="3"/>
-      <c r="E33" s="7" t="s">
-        <v>98</v>
+      <c r="E33" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="F33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1241,8 +1262,8 @@
         <v>63</v>
       </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="7" t="s">
-        <v>101</v>
+      <c r="E43" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="F43" t="s">
         <v>91</v>
@@ -1259,8 +1280,8 @@
         <v>64</v>
       </c>
       <c r="D44" s="3"/>
-      <c r="E44" s="7" t="s">
-        <v>102</v>
+      <c r="E44" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="F44" t="s">
         <v>79</v>
@@ -1287,22 +1308,22 @@
         <v>66</v>
       </c>
       <c r="D46" s="3"/>
-      <c r="E46" s="7" t="s">
-        <v>103</v>
+      <c r="E46" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="F46" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
@@ -1350,8 +1371,8 @@
         <v>19</v>
       </c>
       <c r="D52" s="3"/>
-      <c r="E52" s="7" t="s">
-        <v>104</v>
+      <c r="E52" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="F52" t="s">
         <v>88</v>
@@ -1378,8 +1399,8 @@
         <v>21</v>
       </c>
       <c r="D54" s="3"/>
-      <c r="E54" s="7" t="s">
-        <v>106</v>
+      <c r="E54" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="F54" t="s">
         <v>89</v>
@@ -1436,8 +1457,8 @@
         <v>26</v>
       </c>
       <c r="D59" s="3"/>
-      <c r="E59" s="7" t="s">
-        <v>107</v>
+      <c r="E59" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="F59" t="s">
         <v>85</v>
@@ -1454,8 +1475,8 @@
         <v>27</v>
       </c>
       <c r="D60" s="3"/>
-      <c r="E60" s="7" t="s">
-        <v>108</v>
+      <c r="E60" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="F60" t="s">
         <v>86</v>
@@ -1475,14 +1496,14 @@
       <c r="C62" s="5"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
@@ -1510,8 +1531,8 @@
         <v>1</v>
       </c>
       <c r="D65" s="3"/>
-      <c r="E65" s="7" t="s">
-        <v>114</v>
+      <c r="E65" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="F65" t="s">
         <v>75</v>
@@ -1538,8 +1559,8 @@
         <v>3</v>
       </c>
       <c r="D67" s="3"/>
-      <c r="E67" s="7" t="s">
-        <v>115</v>
+      <c r="E67" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="F67" t="s">
         <v>76</v>
@@ -1566,8 +1587,8 @@
         <v>5</v>
       </c>
       <c r="D69" s="3"/>
-      <c r="E69" s="7" t="s">
-        <v>116</v>
+      <c r="E69" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="F69" t="s">
         <v>77</v>
@@ -1594,8 +1615,8 @@
         <v>7</v>
       </c>
       <c r="D71" s="3"/>
-      <c r="E71" s="7" t="s">
-        <v>117</v>
+      <c r="E71" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="F71" t="s">
         <v>78</v>
@@ -1622,8 +1643,8 @@
         <v>9</v>
       </c>
       <c r="D73" s="3"/>
-      <c r="E73" s="7" t="s">
-        <v>118</v>
+      <c r="E73" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="F73" t="s">
         <v>72</v>
@@ -1650,8 +1671,8 @@
         <v>11</v>
       </c>
       <c r="D75" s="4"/>
-      <c r="E75" s="8" t="s">
-        <v>119</v>
+      <c r="E75" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="F75" t="s">
         <v>73</v>
@@ -1678,8 +1699,8 @@
         <v>13</v>
       </c>
       <c r="D77" s="4"/>
-      <c r="E77" s="8" t="s">
-        <v>120</v>
+      <c r="E77" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="F77" t="s">
         <v>74</v>
@@ -1706,8 +1727,8 @@
         <v>15</v>
       </c>
       <c r="D79" s="3"/>
-      <c r="E79" s="7" t="s">
-        <v>105</v>
+      <c r="E79" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="F79" t="s">
         <v>71</v>

--- a/FRDM KL25Z Pin besetzung.xlsx
+++ b/FRDM KL25Z Pin besetzung.xlsx
@@ -391,7 +391,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -479,7 +479,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>

--- a/FRDM KL25Z Pin besetzung.xlsx
+++ b/FRDM KL25Z Pin besetzung.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="125">
   <si>
     <t>FRDM Board KL25Z Pin Besetzung</t>
   </si>
@@ -386,6 +386,9 @@
   </si>
   <si>
     <t>Anschlagsschalter Vertikal oben</t>
+  </si>
+  <si>
+    <t>AnschlagHorizontalVorne</t>
   </si>
 </sst>
 </file>
@@ -767,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1295,7 +1298,10 @@
         <v>42</v>
       </c>
       <c r="C45" s="5"/>
-      <c r="D45" s="2"/>
+      <c r="D45" s="3"/>
+      <c r="F45" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">

--- a/FRDM KL25Z Pin besetzung.xlsx
+++ b/FRDM KL25Z Pin besetzung.xlsx
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/FRDM KL25Z Pin besetzung.xlsx
+++ b/FRDM KL25Z Pin besetzung.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="126">
   <si>
     <t>FRDM Board KL25Z Pin Besetzung</t>
   </si>
@@ -389,12 +389,15 @@
   </si>
   <si>
     <t>AnschlagHorizontalVorne</t>
+  </si>
+  <si>
+    <t>DC_DIR_H2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -482,7 +485,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -770,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1297,8 +1300,13 @@
       <c r="B45" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="5"/>
+      <c r="C45" s="5">
+        <v>65</v>
+      </c>
       <c r="D45" s="3"/>
+      <c r="E45" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="F45" t="s">
         <v>124</v>
       </c>

--- a/FRDM KL25Z Pin besetzung.xlsx
+++ b/FRDM KL25Z Pin besetzung.xlsx
@@ -391,7 +391,7 @@
     <t>AnschlagHorizontalVorne</t>
   </si>
   <si>
-    <t>DC_DIR_H2</t>
+    <t>DC_SW_H2</t>
   </si>
 </sst>
 </file>
@@ -773,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
